--- a/PhoenixCI/Excel_Template/30640.xlsx
+++ b/PhoenixCI/Excel_Template/30640.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB3A9CA-B6E4-4A56-BB57-FC3FE691BDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45419F07-E98C-4D38-909B-A4910D7909B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="30640" sheetId="4216" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -551,40 +550,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,34 +610,34 @@
     <xf numFmtId="187" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,25 +649,25 @@
     <xf numFmtId="187" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="191" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,46 +676,55 @@
     <xf numFmtId="187" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,64 +1229,64 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="53"/>
+      <c r="A8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="56"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="57" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="56" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="35"/>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="23"/>
       <c r="F10" s="21" t="s">
         <v>6</v>
@@ -1300,12 +1308,12 @@
         <v>35</v>
       </c>
       <c r="O10" s="23"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="56"/>
       <c r="Q10" s="36"/>
-      <c r="R10" s="53"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1373,7 +1381,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1447,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="27" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1513,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
@@ -1571,7 +1579,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1645,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1711,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="27" t="s">
         <v>22</v>
       </c>
@@ -1769,7 +1777,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="27" t="s">
         <v>46</v>
       </c>
@@ -1835,7 +1843,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="27" t="s">
         <v>42</v>
       </c>
@@ -1901,263 +1909,263 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46">
         <f>IF(S20&gt;0,C20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="45">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="E20" s="47">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
         <f>IF(S20&gt;0,E20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="45">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="G20" s="47">
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
         <f>IF(S20&gt;0,G20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="45">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
+      <c r="I20" s="47">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
         <f>IF(S20&gt;0,I20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="45">
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
+      <c r="K20" s="47">
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
         <f>IF(S20&gt;0,K20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="45">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
+      <c r="M20" s="47">
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
         <f>IF(S20&gt;0,M20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="45">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="O20" s="47">
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
         <f>IF(S20&gt;0,O20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="45">
-        <v>0</v>
-      </c>
-      <c r="R20" s="18">
+      <c r="Q20" s="47">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
         <f>IF(S20&gt;0,Q20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="47">
+      <c r="S20" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="18">
+      <c r="C21" s="45"/>
+      <c r="D21" s="46">
         <f>IF(S21&gt;0,C21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="45">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="47">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
         <f>IF(S21&gt;0,E21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="45">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="G21" s="47">
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
         <f>IF(S21&gt;0,G21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="45">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
         <f>IF(S21&gt;0,I21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="45">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
+      <c r="K21" s="47">
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
         <f>IF(S21&gt;0,K21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="45">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18">
+      <c r="M21" s="47">
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
         <f>IF(S21&gt;0,M21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="45">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="O21" s="47">
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
         <f>IF(S21&gt;0,O21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="45">
-        <v>0</v>
-      </c>
-      <c r="R21" s="18">
+      <c r="Q21" s="47">
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
         <f>IF(S21&gt;0,Q21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="47">
+      <c r="S21" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="18">
+      <c r="C22" s="45"/>
+      <c r="D22" s="46">
         <f>IF(S22&gt;0,C22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="45">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="E22" s="47">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46">
         <f>IF(S22&gt;0,E22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="45">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="G22" s="47">
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
         <f>IF(S22&gt;0,G22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="45">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18">
+      <c r="I22" s="47">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
         <f>IF(S22&gt;0,I22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="45">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="K22" s="47">
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
         <f>IF(S22&gt;0,K22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18">
+      <c r="M22" s="47">
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
         <f>IF(S22&gt;0,M22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="45">
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
+      <c r="O22" s="47">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
         <f>IF(S22&gt;0,O22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="45">
-        <v>0</v>
-      </c>
-      <c r="R22" s="18">
+      <c r="Q22" s="47">
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
         <f>IF(S22&gt;0,Q22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="47">
+      <c r="S22" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="18">
+      <c r="C23" s="45"/>
+      <c r="D23" s="46">
         <f>IF(S23&gt;0,C23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="45">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="E23" s="47">
+        <v>0</v>
+      </c>
+      <c r="F23" s="46">
         <f>IF(S23&gt;0,E23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="45">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="G23" s="47">
+        <v>0</v>
+      </c>
+      <c r="H23" s="46">
         <f>IF(S23&gt;0,G23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="45">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="I23" s="47">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46">
         <f>IF(S23&gt;0,I23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="45">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="K23" s="47">
+        <v>0</v>
+      </c>
+      <c r="L23" s="46">
         <f>IF(S23&gt;0,K23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="45">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18">
+      <c r="M23" s="47">
+        <v>0</v>
+      </c>
+      <c r="N23" s="46">
         <f>IF(S23&gt;0,M23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="45">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
+      <c r="O23" s="47">
+        <v>0</v>
+      </c>
+      <c r="P23" s="46">
         <f>IF(S23&gt;0,O23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="45">
-        <v>0</v>
-      </c>
-      <c r="R23" s="18">
+      <c r="Q23" s="47">
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
         <f>IF(S23&gt;0,Q23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="47">
+      <c r="S23" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="27" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2231,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="28" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2297,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="29" t="s">
         <v>20</v>
       </c>
@@ -2355,7 +2363,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
@@ -2421,71 +2429,71 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="18">
+      <c r="D28" s="46">
         <f>IF(S28&gt;0,C28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="45">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="E28" s="47">
+        <v>0</v>
+      </c>
+      <c r="F28" s="46">
         <f>IF(S28&gt;0,E28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="45">
-        <v>0</v>
-      </c>
-      <c r="H28" s="18">
+      <c r="G28" s="47">
+        <v>0</v>
+      </c>
+      <c r="H28" s="46">
         <f>IF(S28&gt;0,G28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
-      <c r="J28" s="18">
+      <c r="I28" s="47">
+        <v>0</v>
+      </c>
+      <c r="J28" s="46">
         <f>IF(S28&gt;0,I28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="45">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="K28" s="47">
+        <v>0</v>
+      </c>
+      <c r="L28" s="46">
         <f>IF(S28&gt;0,K28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="45">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18">
+      <c r="M28" s="47">
+        <v>0</v>
+      </c>
+      <c r="N28" s="46">
         <f>IF(S28&gt;0,M28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="45">
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
+      <c r="O28" s="47">
+        <v>0</v>
+      </c>
+      <c r="P28" s="46">
         <f>IF(S28&gt;0,O28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="45">
-        <v>0</v>
-      </c>
-      <c r="R28" s="18">
+      <c r="Q28" s="47">
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
         <f>IF(S28&gt;0,Q28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="47">
+      <c r="S28" s="50">
         <f>C28+E28+G28+I28+K28+M28+O28+Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="29" t="s">
         <v>29</v>
       </c>
@@ -2549,7 +2557,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -2615,7 +2623,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="29" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2689,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
@@ -2747,263 +2755,263 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18">
+      <c r="C33" s="45"/>
+      <c r="D33" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E33" s="45">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="E33" s="47">
+        <v>0</v>
+      </c>
+      <c r="F33" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G33" s="45">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
+      <c r="G33" s="47">
+        <v>0</v>
+      </c>
+      <c r="H33" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I33" s="45">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
+      <c r="I33" s="47">
+        <v>0</v>
+      </c>
+      <c r="J33" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K33" s="45">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
+      <c r="K33" s="47">
+        <v>0</v>
+      </c>
+      <c r="L33" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M33" s="45">
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
+      <c r="M33" s="47">
+        <v>0</v>
+      </c>
+      <c r="N33" s="46">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O33" s="45">
-        <v>0</v>
-      </c>
-      <c r="P33" s="18">
+      <c r="O33" s="47">
+        <v>0</v>
+      </c>
+      <c r="P33" s="46">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="45">
-        <v>0</v>
-      </c>
-      <c r="R33" s="18">
+      <c r="Q33" s="47">
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S33" s="47">
+      <c r="S33" s="50">
         <f>C33+E33+G33+I33+K33+M33+O33+Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="18">
+      <c r="C34" s="45"/>
+      <c r="D34" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
+      <c r="E34" s="47">
+        <v>0</v>
+      </c>
+      <c r="F34" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G34" s="45">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18">
+      <c r="G34" s="47">
+        <v>0</v>
+      </c>
+      <c r="H34" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I34" s="45">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18">
+      <c r="I34" s="47">
+        <v>0</v>
+      </c>
+      <c r="J34" s="46">
         <f>IF(S34&gt;0,I34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="45">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
+      <c r="K34" s="47">
+        <v>0</v>
+      </c>
+      <c r="L34" s="46">
         <f>IF(S34&gt;0,K34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="45">
-        <v>0</v>
-      </c>
-      <c r="N34" s="18">
+      <c r="M34" s="47">
+        <v>0</v>
+      </c>
+      <c r="N34" s="46">
         <f>IF(S34&gt;0,M34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="45">
-        <v>0</v>
-      </c>
-      <c r="P34" s="18">
+      <c r="O34" s="47">
+        <v>0</v>
+      </c>
+      <c r="P34" s="46">
         <f>IF(S34&gt;0,O34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="45">
-        <v>0</v>
-      </c>
-      <c r="R34" s="18">
+      <c r="Q34" s="47">
+        <v>0</v>
+      </c>
+      <c r="R34" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S34" s="47">
+      <c r="S34" s="50">
         <f>C34+E34+G34+I34+K34+M34+O34+Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18">
+      <c r="C35" s="45"/>
+      <c r="D35" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E35" s="45">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="E35" s="47">
+        <v>0</v>
+      </c>
+      <c r="F35" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G35" s="45">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
+      <c r="G35" s="47">
+        <v>0</v>
+      </c>
+      <c r="H35" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I35" s="45">
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
+      <c r="I35" s="47">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46">
         <f>IF(S35&gt;0,I35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="45">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
+      <c r="K35" s="47">
+        <v>0</v>
+      </c>
+      <c r="L35" s="46">
         <f>IF(S35&gt;0,K35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="45">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18">
+      <c r="M35" s="47">
+        <v>0</v>
+      </c>
+      <c r="N35" s="46">
         <f>IF(S35&gt;0,M35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="45">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18">
+      <c r="O35" s="47">
+        <v>0</v>
+      </c>
+      <c r="P35" s="46">
         <f>IF(S35&gt;0,O35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="45">
-        <v>0</v>
-      </c>
-      <c r="R35" s="18">
+      <c r="Q35" s="47">
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S35" s="47">
+      <c r="S35" s="50">
         <f>C35+E35+G35+I35+K35+M35+O35+Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="53"/>
+      <c r="B36" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18">
+      <c r="C36" s="45"/>
+      <c r="D36" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E36" s="45">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="E36" s="47">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G36" s="45">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
+      <c r="G36" s="47">
+        <v>0</v>
+      </c>
+      <c r="H36" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I36" s="45">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
+      <c r="I36" s="47">
+        <v>0</v>
+      </c>
+      <c r="J36" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K36" s="45">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
+      <c r="K36" s="47">
+        <v>0</v>
+      </c>
+      <c r="L36" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M36" s="45">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18">
+      <c r="M36" s="47">
+        <v>0</v>
+      </c>
+      <c r="N36" s="46">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O36" s="45">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18">
+      <c r="O36" s="47">
+        <v>0</v>
+      </c>
+      <c r="P36" s="46">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="45">
-        <v>0</v>
-      </c>
-      <c r="R36" s="18">
+      <c r="Q36" s="47">
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S36" s="47">
+      <c r="S36" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="44" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="40" t="s">
         <v>44</v>
       </c>
@@ -3077,7 +3085,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
@@ -3145,7 +3153,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="29" t="s">
         <v>17</v>
       </c>
@@ -3211,7 +3219,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="29" t="s">
         <v>18</v>
       </c>
@@ -3277,7 +3285,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
       </c>
@@ -3343,7 +3351,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="30" t="s">
         <v>23</v>
       </c>
@@ -3409,7 +3417,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="29" t="s">
         <v>24</v>
       </c>
@@ -3475,7 +3483,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="30" t="s">
         <v>27</v>
       </c>
@@ -3542,7 +3550,7 @@
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="30" t="s">
         <v>14</v>
       </c>
@@ -3609,7 +3617,7 @@
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="30" t="s">
         <v>45</v>
       </c>
@@ -3676,7 +3684,7 @@
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="27" t="s">
         <v>26</v>
       </c>
@@ -3743,14 +3751,14 @@
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="46">
-        <v>0</v>
-      </c>
-      <c r="D48" s="32">
+      <c r="C48" s="48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="49">
         <f>IF(S48&gt;0,C48/S48*100,0)</f>
         <v>0</v>
       </c>
@@ -3799,7 +3807,7 @@
       <c r="Q48" s="33">
         <v>0</v>
       </c>
-      <c r="R48" s="32">
+      <c r="R48" s="49">
         <f>IF(S48&gt;0,Q48/S48*100,0)</f>
         <v>0</v>
       </c>
@@ -3810,14 +3818,14 @@
       <c r="T48" s="6"/>
     </row>
     <row r="49" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="46">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
+      <c r="C49" s="48">
+        <v>0</v>
+      </c>
+      <c r="D49" s="49">
         <f>IF(S49&gt;0,C49/S49*100,0)</f>
         <v>0</v>
       </c>
@@ -3866,7 +3874,7 @@
       <c r="Q49" s="33">
         <v>0</v>
       </c>
-      <c r="R49" s="32">
+      <c r="R49" s="49">
         <f>IF(S49&gt;0,Q49/S49*100,0)</f>
         <v>0</v>
       </c>
@@ -3877,7 +3885,7 @@
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="34" t="s">
         <v>32</v>
       </c>
@@ -3952,10 +3960,10 @@
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="52"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="16">
         <f>SUM(C50,C37)</f>
         <v>0</v>

--- a/PhoenixCI/Excel_Template/30640.xlsx
+++ b/PhoenixCI/Excel_Template/30640.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45419F07-E98C-4D38-909B-A4910D7909B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB3A9CA-B6E4-4A56-BB57-FC3FE691BDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30640" sheetId="4216" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -550,40 +551,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,34 +611,34 @@
     <xf numFmtId="187" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,25 +650,25 @@
     <xf numFmtId="187" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="191" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,55 +677,46 @@
     <xf numFmtId="187" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="191" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="191" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,64 +1221,64 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="56"/>
+      <c r="A8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="53"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
     </row>
     <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="53" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="35"/>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="58"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="23"/>
       <c r="F10" s="21" t="s">
         <v>6</v>
@@ -1308,12 +1300,12 @@
         <v>35</v>
       </c>
       <c r="O10" s="23"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="53"/>
       <c r="Q10" s="36"/>
-      <c r="R10" s="56"/>
+      <c r="R10" s="53"/>
     </row>
     <row r="11" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1381,7 +1373,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1439,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="27" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1505,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1571,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
@@ -1645,7 +1637,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1703,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="27" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1769,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="27" t="s">
         <v>46</v>
       </c>
@@ -1843,7 +1835,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="27" t="s">
         <v>42</v>
       </c>
@@ -1909,263 +1901,263 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46">
+      <c r="C20" s="13"/>
+      <c r="D20" s="18">
         <f>IF(S20&gt;0,C20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="47">
-        <v>0</v>
-      </c>
-      <c r="F20" s="46">
+      <c r="E20" s="45">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
         <f>IF(S20&gt;0,E20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="47">
-        <v>0</v>
-      </c>
-      <c r="H20" s="46">
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
         <f>IF(S20&gt;0,G20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="47">
-        <v>0</v>
-      </c>
-      <c r="J20" s="46">
+      <c r="I20" s="45">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
         <f>IF(S20&gt;0,I20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="47">
-        <v>0</v>
-      </c>
-      <c r="L20" s="46">
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
         <f>IF(S20&gt;0,K20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="47">
-        <v>0</v>
-      </c>
-      <c r="N20" s="46">
+      <c r="M20" s="45">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
         <f>IF(S20&gt;0,M20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="47">
-        <v>0</v>
-      </c>
-      <c r="P20" s="46">
+      <c r="O20" s="45">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
         <f>IF(S20&gt;0,O20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="47">
-        <v>0</v>
-      </c>
-      <c r="R20" s="46">
+      <c r="Q20" s="45">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
         <f>IF(S20&gt;0,Q20/S20*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="50">
+      <c r="S20" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46">
+      <c r="C21" s="13"/>
+      <c r="D21" s="18">
         <f>IF(S21&gt;0,C21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="47">
-        <v>0</v>
-      </c>
-      <c r="F21" s="46">
+      <c r="E21" s="45">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
         <f>IF(S21&gt;0,E21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="47">
-        <v>0</v>
-      </c>
-      <c r="H21" s="46">
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
         <f>IF(S21&gt;0,G21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="47">
-        <v>0</v>
-      </c>
-      <c r="J21" s="46">
+      <c r="I21" s="45">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
         <f>IF(S21&gt;0,I21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="47">
-        <v>0</v>
-      </c>
-      <c r="L21" s="46">
+      <c r="K21" s="45">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
         <f>IF(S21&gt;0,K21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="47">
-        <v>0</v>
-      </c>
-      <c r="N21" s="46">
+      <c r="M21" s="45">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
         <f>IF(S21&gt;0,M21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="47">
-        <v>0</v>
-      </c>
-      <c r="P21" s="46">
+      <c r="O21" s="45">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
         <f>IF(S21&gt;0,O21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="47">
-        <v>0</v>
-      </c>
-      <c r="R21" s="46">
+      <c r="Q21" s="45">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
         <f>IF(S21&gt;0,Q21/S21*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="50">
+      <c r="S21" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46">
+      <c r="C22" s="13"/>
+      <c r="D22" s="18">
         <f>IF(S22&gt;0,C22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="47">
-        <v>0</v>
-      </c>
-      <c r="F22" s="46">
+      <c r="E22" s="45">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
         <f>IF(S22&gt;0,E22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="47">
-        <v>0</v>
-      </c>
-      <c r="H22" s="46">
+      <c r="G22" s="45">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
         <f>IF(S22&gt;0,G22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="47">
-        <v>0</v>
-      </c>
-      <c r="J22" s="46">
+      <c r="I22" s="45">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
         <f>IF(S22&gt;0,I22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="47">
-        <v>0</v>
-      </c>
-      <c r="L22" s="46">
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
         <f>IF(S22&gt;0,K22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="47">
-        <v>0</v>
-      </c>
-      <c r="N22" s="46">
+      <c r="M22" s="45">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
         <f>IF(S22&gt;0,M22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="47">
-        <v>0</v>
-      </c>
-      <c r="P22" s="46">
+      <c r="O22" s="45">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
         <f>IF(S22&gt;0,O22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="47">
-        <v>0</v>
-      </c>
-      <c r="R22" s="46">
+      <c r="Q22" s="45">
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
         <f>IF(S22&gt;0,Q22/S22*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="50">
+      <c r="S22" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46">
+      <c r="C23" s="13"/>
+      <c r="D23" s="18">
         <f>IF(S23&gt;0,C23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="47">
-        <v>0</v>
-      </c>
-      <c r="F23" s="46">
+      <c r="E23" s="45">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
         <f>IF(S23&gt;0,E23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="47">
-        <v>0</v>
-      </c>
-      <c r="H23" s="46">
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
         <f>IF(S23&gt;0,G23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="47">
-        <v>0</v>
-      </c>
-      <c r="J23" s="46">
+      <c r="I23" s="45">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
         <f>IF(S23&gt;0,I23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="47">
-        <v>0</v>
-      </c>
-      <c r="L23" s="46">
+      <c r="K23" s="45">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
         <f>IF(S23&gt;0,K23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="47">
-        <v>0</v>
-      </c>
-      <c r="N23" s="46">
+      <c r="M23" s="45">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18">
         <f>IF(S23&gt;0,M23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="47">
-        <v>0</v>
-      </c>
-      <c r="P23" s="46">
+      <c r="O23" s="45">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
         <f>IF(S23&gt;0,O23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="47">
-        <v>0</v>
-      </c>
-      <c r="R23" s="46">
+      <c r="Q23" s="45">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
         <f>IF(S23&gt;0,Q23/S23*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="50">
+      <c r="S23" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="27" t="s">
         <v>12</v>
       </c>
@@ -2231,7 +2223,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="28" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2289,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="29" t="s">
         <v>20</v>
       </c>
@@ -2363,7 +2355,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
@@ -2429,71 +2421,71 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="46">
+      <c r="D28" s="18">
         <f>IF(S28&gt;0,C28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="47">
-        <v>0</v>
-      </c>
-      <c r="F28" s="46">
+      <c r="E28" s="45">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
         <f>IF(S28&gt;0,E28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="47">
-        <v>0</v>
-      </c>
-      <c r="H28" s="46">
+      <c r="G28" s="45">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
         <f>IF(S28&gt;0,G28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="47">
-        <v>0</v>
-      </c>
-      <c r="J28" s="46">
+      <c r="I28" s="45">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
         <f>IF(S28&gt;0,I28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="47">
-        <v>0</v>
-      </c>
-      <c r="L28" s="46">
+      <c r="K28" s="45">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
         <f>IF(S28&gt;0,K28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="47">
-        <v>0</v>
-      </c>
-      <c r="N28" s="46">
+      <c r="M28" s="45">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
         <f>IF(S28&gt;0,M28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="47">
-        <v>0</v>
-      </c>
-      <c r="P28" s="46">
+      <c r="O28" s="45">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
         <f>IF(S28&gt;0,O28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="47">
-        <v>0</v>
-      </c>
-      <c r="R28" s="46">
+      <c r="Q28" s="45">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
         <f>IF(S28&gt;0,Q28/S28*100,0)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="50">
+      <c r="S28" s="47">
         <f>C28+E28+G28+I28+K28+M28+O28+Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="29" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2549,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="29" t="s">
         <v>39</v>
       </c>
@@ -2623,7 +2615,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="29" t="s">
         <v>40</v>
       </c>
@@ -2689,7 +2681,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
@@ -2755,263 +2747,263 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46">
+      <c r="C33" s="13"/>
+      <c r="D33" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E33" s="47">
-        <v>0</v>
-      </c>
-      <c r="F33" s="46">
+      <c r="E33" s="45">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G33" s="47">
-        <v>0</v>
-      </c>
-      <c r="H33" s="46">
+      <c r="G33" s="45">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I33" s="47">
-        <v>0</v>
-      </c>
-      <c r="J33" s="46">
+      <c r="I33" s="45">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K33" s="47">
-        <v>0</v>
-      </c>
-      <c r="L33" s="46">
+      <c r="K33" s="45">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M33" s="47">
-        <v>0</v>
-      </c>
-      <c r="N33" s="46">
+      <c r="M33" s="45">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O33" s="47">
-        <v>0</v>
-      </c>
-      <c r="P33" s="46">
+      <c r="O33" s="45">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="47">
-        <v>0</v>
-      </c>
-      <c r="R33" s="46">
+      <c r="Q33" s="45">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S33" s="50">
+      <c r="S33" s="47">
         <f>C33+E33+G33+I33+K33+M33+O33+Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46">
+      <c r="C34" s="13"/>
+      <c r="D34" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E34" s="47">
-        <v>0</v>
-      </c>
-      <c r="F34" s="46">
+      <c r="E34" s="45">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G34" s="47">
-        <v>0</v>
-      </c>
-      <c r="H34" s="46">
+      <c r="G34" s="45">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I34" s="47">
-        <v>0</v>
-      </c>
-      <c r="J34" s="46">
+      <c r="I34" s="45">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
         <f>IF(S34&gt;0,I34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="47">
-        <v>0</v>
-      </c>
-      <c r="L34" s="46">
+      <c r="K34" s="45">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
         <f>IF(S34&gt;0,K34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="47">
-        <v>0</v>
-      </c>
-      <c r="N34" s="46">
+      <c r="M34" s="45">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
         <f>IF(S34&gt;0,M34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="47">
-        <v>0</v>
-      </c>
-      <c r="P34" s="46">
+      <c r="O34" s="45">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
         <f>IF(S34&gt;0,O34/S34*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="47">
-        <v>0</v>
-      </c>
-      <c r="R34" s="46">
+      <c r="Q34" s="45">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S34" s="50">
+      <c r="S34" s="47">
         <f>C34+E34+G34+I34+K34+M34+O34+Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="51" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46">
+      <c r="C35" s="13"/>
+      <c r="D35" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E35" s="47">
-        <v>0</v>
-      </c>
-      <c r="F35" s="46">
+      <c r="E35" s="45">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G35" s="47">
-        <v>0</v>
-      </c>
-      <c r="H35" s="46">
+      <c r="G35" s="45">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I35" s="47">
-        <v>0</v>
-      </c>
-      <c r="J35" s="46">
+      <c r="I35" s="45">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
         <f>IF(S35&gt;0,I35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="47">
-        <v>0</v>
-      </c>
-      <c r="L35" s="46">
+      <c r="K35" s="45">
+        <v>0</v>
+      </c>
+      <c r="L35" s="18">
         <f>IF(S35&gt;0,K35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="47">
-        <v>0</v>
-      </c>
-      <c r="N35" s="46">
+      <c r="M35" s="45">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
         <f>IF(S35&gt;0,M35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="47">
-        <v>0</v>
-      </c>
-      <c r="P35" s="46">
+      <c r="O35" s="45">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
         <f>IF(S35&gt;0,O35/S35*100,0)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="47">
-        <v>0</v>
-      </c>
-      <c r="R35" s="46">
+      <c r="Q35" s="45">
+        <v>0</v>
+      </c>
+      <c r="R35" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S35" s="50">
+      <c r="S35" s="47">
         <f>C35+E35+G35+I35+K35+M35+O35+Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46">
+      <c r="C36" s="13"/>
+      <c r="D36" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E36" s="47">
-        <v>0</v>
-      </c>
-      <c r="F36" s="46">
+      <c r="E36" s="45">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G36" s="47">
-        <v>0</v>
-      </c>
-      <c r="H36" s="46">
+      <c r="G36" s="45">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I36" s="47">
-        <v>0</v>
-      </c>
-      <c r="J36" s="46">
+      <c r="I36" s="45">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K36" s="47">
-        <v>0</v>
-      </c>
-      <c r="L36" s="46">
+      <c r="K36" s="45">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M36" s="47">
-        <v>0</v>
-      </c>
-      <c r="N36" s="46">
+      <c r="M36" s="45">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O36" s="47">
-        <v>0</v>
-      </c>
-      <c r="P36" s="46">
+      <c r="O36" s="45">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="47">
-        <v>0</v>
-      </c>
-      <c r="R36" s="46">
+      <c r="Q36" s="45">
+        <v>0</v>
+      </c>
+      <c r="R36" s="18">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S36" s="50">
+      <c r="S36" s="47">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="44" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="40" t="s">
         <v>44</v>
       </c>
@@ -3085,7 +3077,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
@@ -3153,7 +3145,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="29" t="s">
         <v>17</v>
       </c>
@@ -3219,7 +3211,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="29" t="s">
         <v>18</v>
       </c>
@@ -3285,7 +3277,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
       </c>
@@ -3351,7 +3343,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="30" t="s">
         <v>23</v>
       </c>
@@ -3417,7 +3409,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="29" t="s">
         <v>24</v>
       </c>
@@ -3483,7 +3475,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="30" t="s">
         <v>27</v>
       </c>
@@ -3550,7 +3542,7 @@
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="30" t="s">
         <v>14</v>
       </c>
@@ -3617,7 +3609,7 @@
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="30" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +3676,7 @@
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="27" t="s">
         <v>26</v>
       </c>
@@ -3751,14 +3743,14 @@
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="49">
+      <c r="C48" s="46">
+        <v>0</v>
+      </c>
+      <c r="D48" s="32">
         <f>IF(S48&gt;0,C48/S48*100,0)</f>
         <v>0</v>
       </c>
@@ -3807,7 +3799,7 @@
       <c r="Q48" s="33">
         <v>0</v>
       </c>
-      <c r="R48" s="49">
+      <c r="R48" s="32">
         <f>IF(S48&gt;0,Q48/S48*100,0)</f>
         <v>0</v>
       </c>
@@ -3818,14 +3810,14 @@
       <c r="T48" s="6"/>
     </row>
     <row r="49" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="48">
-        <v>0</v>
-      </c>
-      <c r="D49" s="49">
+      <c r="C49" s="46">
+        <v>0</v>
+      </c>
+      <c r="D49" s="32">
         <f>IF(S49&gt;0,C49/S49*100,0)</f>
         <v>0</v>
       </c>
@@ -3874,7 +3866,7 @@
       <c r="Q49" s="33">
         <v>0</v>
       </c>
-      <c r="R49" s="49">
+      <c r="R49" s="32">
         <f>IF(S49&gt;0,Q49/S49*100,0)</f>
         <v>0</v>
       </c>
@@ -3885,7 +3877,7 @@
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="34" t="s">
         <v>32</v>
       </c>
@@ -3960,10 +3952,10 @@
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="55"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="16">
         <f>SUM(C50,C37)</f>
         <v>0</v>

--- a/PhoenixCI/Excel_Template/30640.xlsx
+++ b/PhoenixCI/Excel_Template/30640.xlsx
@@ -1,37 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB3A9CA-B6E4-4A56-BB57-FC3FE691BDC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="30640" sheetId="4216" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'30640'!$A$2:$R$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'30640'!$A$2:$R$52</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>商品名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +285,10 @@
     <t>布蘭特原油期貨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>富櫃200期貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +298,7 @@
     <numFmt numFmtId="187" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="191" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -437,6 +432,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -551,40 +553,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,34 +613,34 @@
     <xf numFmtId="187" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,25 +652,25 @@
     <xf numFmtId="187" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="191" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="187" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,46 +679,58 @@
     <xf numFmtId="187" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,23 +826,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -864,23 +861,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,10 +1040,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:IV23"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1221,64 +1201,64 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="53"/>
+      <c r="A8" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="57"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="58" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="35"/>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="23"/>
       <c r="F10" s="21" t="s">
         <v>6</v>
@@ -1300,12 +1280,12 @@
         <v>35</v>
       </c>
       <c r="O10" s="23"/>
-      <c r="P10" s="53"/>
+      <c r="P10" s="57"/>
       <c r="Q10" s="36"/>
-      <c r="R10" s="53"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="53" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1373,7 +1353,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
@@ -1381,65 +1361,65 @@
         <v>0</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12:D51" si="0">IF(S12&gt;0,C12/S12*100,0)</f>
+        <f t="shared" ref="D12:D52" si="0">IF(S12&gt;0,C12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="E12" s="19">
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" ref="F12:F51" si="1">IF(S12&gt;0,E12/S12*100,0)</f>
+        <f t="shared" ref="F12:F52" si="1">IF(S12&gt;0,E12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="19">
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" ref="H12:H50" si="2">IF(S12&gt;0,G12/S12*100,0)</f>
+        <f t="shared" ref="H12:H51" si="2">IF(S12&gt;0,G12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
         <v>0</v>
       </c>
       <c r="J12" s="18">
-        <f t="shared" ref="J12:J51" si="3">IF(S12&gt;0,I12/S12*100,0)</f>
+        <f t="shared" ref="J12:J52" si="3">IF(S12&gt;0,I12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="K12" s="19">
         <v>0</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" ref="L12:L51" si="4">IF(S12&gt;0,K12/S12*100,0)</f>
+        <f t="shared" ref="L12:L52" si="4">IF(S12&gt;0,K12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="M12" s="19">
         <v>0</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" ref="N12:N51" si="5">IF(S12&gt;0,M12/S12*100,0)</f>
+        <f t="shared" ref="N12:N52" si="5">IF(S12&gt;0,M12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="19">
         <v>0</v>
       </c>
       <c r="P12" s="18">
-        <f t="shared" ref="P12:P52" si="6">IF(S12&gt;0,O12/S12*100,0)</f>
+        <f t="shared" ref="P12:P53" si="6">IF(S12&gt;0,O12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="19">
         <v>0</v>
       </c>
       <c r="R12" s="18">
-        <f t="shared" ref="R12:R51" si="7">IF(S12&gt;0,Q12/S12*100,0)</f>
+        <f t="shared" ref="R12:R52" si="7">IF(S12&gt;0,Q12/S12*100,0)</f>
         <v>0</v>
       </c>
       <c r="S12" s="39">
-        <f t="shared" ref="S12:S51" si="8">C12+E12+G12+I12+K12+M12+O12+Q12</f>
+        <f t="shared" ref="S12:S52" si="8">C12+E12+G12+I12+K12+M12+O12+Q12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="27" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1485,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
@@ -1571,7 +1551,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1617,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1683,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="27" t="s">
         <v>22</v>
       </c>
@@ -1769,7 +1749,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="27" t="s">
         <v>46</v>
       </c>
@@ -1835,64 +1815,62 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
+      <c r="A19" s="54"/>
+      <c r="B19" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="18">
-        <f>IF(S19&gt;0,C19/S19*100,0)</f>
+        <f t="shared" ref="D19:D24" si="9">IF(S19&gt;0,C19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="19">
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f>IF(S19&gt;0,E19/S19*100,0)</f>
+        <f t="shared" ref="F19:F24" si="10">IF(S19&gt;0,E19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="19">
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <f>IF(S19&gt;0,G19/S19*100,0)</f>
+        <f t="shared" ref="H19:H24" si="11">IF(S19&gt;0,G19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
       </c>
       <c r="J19" s="18">
-        <f>IF(S19&gt;0,I19/S19*100,0)</f>
+        <f t="shared" ref="J19:J24" si="12">IF(S19&gt;0,I19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="K19" s="19">
         <v>0</v>
       </c>
       <c r="L19" s="18">
-        <f>IF(S19&gt;0,K19/S19*100,0)</f>
+        <f t="shared" ref="L19:L24" si="13">IF(S19&gt;0,K19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="M19" s="19">
         <v>0</v>
       </c>
       <c r="N19" s="18">
-        <f>IF(S19&gt;0,M19/S19*100,0)</f>
+        <f t="shared" ref="N19:N24" si="14">IF(S19&gt;0,M19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="O19" s="19">
         <v>0</v>
       </c>
       <c r="P19" s="18">
-        <f>IF(S19&gt;0,O19/S19*100,0)</f>
+        <f t="shared" ref="P19:P24" si="15">IF(S19&gt;0,O19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="19">
         <v>0</v>
       </c>
       <c r="R19" s="18">
-        <f>IF(S19&gt;0,Q19/S19*100,0)</f>
+        <f t="shared" ref="R19:R24" si="16">IF(S19&gt;0,Q19/S19*100,0)</f>
         <v>0</v>
       </c>
       <c r="S19" s="39">
@@ -1901,331 +1879,331 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18">
-        <f>IF(S20&gt;0,C20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="45">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <f>IF(S20&gt;0,E20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="45">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <f>IF(S20&gt;0,G20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="45">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <f>IF(S20&gt;0,I20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="45">
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
-        <f>IF(S20&gt;0,K20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="45">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
-        <f>IF(S20&gt;0,M20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="45">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <f>IF(S20&gt;0,O20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="45">
-        <v>0</v>
-      </c>
-      <c r="R20" s="18">
-        <f>IF(S20&gt;0,Q20/S20*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="47">
+      <c r="C21" s="45"/>
+      <c r="D21" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="47">
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="47">
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="47">
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="27" t="s">
+    <row r="22" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="18">
-        <f>IF(S21&gt;0,C21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="45">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <f>IF(S21&gt;0,E21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="45">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
-        <f>IF(S21&gt;0,G21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="45">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <f>IF(S21&gt;0,I21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="45">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
-        <f>IF(S21&gt;0,K21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="45">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18">
-        <f>IF(S21&gt;0,M21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="45">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <f>IF(S21&gt;0,O21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="45">
-        <v>0</v>
-      </c>
-      <c r="R21" s="18">
-        <f>IF(S21&gt;0,Q21/S21*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="47">
+      <c r="C22" s="45"/>
+      <c r="D22" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="47">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="47">
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="47">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="47">
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="47">
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="47">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="47">
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="27" t="s">
+    <row r="23" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="18">
-        <f>IF(S22&gt;0,C22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <f>IF(S22&gt;0,E22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="45">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <f>IF(S22&gt;0,G22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="45">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18">
-        <f>IF(S22&gt;0,I22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="45">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
-        <f>IF(S22&gt;0,K22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18">
-        <f>IF(S22&gt;0,M22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="45">
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <f>IF(S22&gt;0,O22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="45">
-        <v>0</v>
-      </c>
-      <c r="R22" s="18">
-        <f>IF(S22&gt;0,Q22/S22*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="47">
+      <c r="C23" s="45"/>
+      <c r="D23" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="47">
+        <v>0</v>
+      </c>
+      <c r="F23" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="47">
+        <v>0</v>
+      </c>
+      <c r="H23" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="47">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="47">
+        <v>0</v>
+      </c>
+      <c r="L23" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="47">
+        <v>0</v>
+      </c>
+      <c r="N23" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="47">
+        <v>0</v>
+      </c>
+      <c r="P23" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="47">
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="27" t="s">
+    <row r="24" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="18">
-        <f>IF(S23&gt;0,C23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="45">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <f>IF(S23&gt;0,E23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="45">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <f>IF(S23&gt;0,G23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="45">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <f>IF(S23&gt;0,I23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="45">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
-        <f>IF(S23&gt;0,K23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="45">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18">
-        <f>IF(S23&gt;0,M23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="45">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <f>IF(S23&gt;0,O23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="45">
-        <v>0</v>
-      </c>
-      <c r="R23" s="18">
-        <f>IF(S23&gt;0,Q23/S23*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="47">
+      <c r="C24" s="45"/>
+      <c r="D24" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="47">
+        <v>0</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="47">
+        <v>0</v>
+      </c>
+      <c r="H24" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="47">
+        <v>0</v>
+      </c>
+      <c r="J24" s="46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="47">
+        <v>0</v>
+      </c>
+      <c r="L24" s="46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="47">
+        <v>0</v>
+      </c>
+      <c r="N24" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="47">
+        <v>0</v>
+      </c>
+      <c r="P24" s="46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="47">
+        <v>0</v>
+      </c>
+      <c r="R24" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="27" t="s">
+    <row r="25" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54"/>
+      <c r="B25" s="27" t="s">
         <v>12</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="19">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>0</v>
-      </c>
-      <c r="R24" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="28" t="s">
-        <v>16</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -2289,9 +2267,9 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="29" t="s">
-        <v>20</v>
+      <c r="A26" s="54"/>
+      <c r="B26" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -2355,9 +2333,9 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -2421,733 +2399,733 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="19">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>0</v>
+      </c>
+      <c r="R28" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="18">
-        <f>IF(S28&gt;0,C28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <f>IF(S28&gt;0,E28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="45">
-        <v>0</v>
-      </c>
-      <c r="H28" s="18">
-        <f>IF(S28&gt;0,G28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
-      <c r="J28" s="18">
-        <f>IF(S28&gt;0,I28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="45">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
-        <f>IF(S28&gt;0,K28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="45">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18">
-        <f>IF(S28&gt;0,M28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="45">
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
-        <f>IF(S28&gt;0,O28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="45">
-        <v>0</v>
-      </c>
-      <c r="R28" s="18">
-        <f>IF(S28&gt;0,Q28/S28*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="47">
-        <f>C28+E28+G28+I28+K28+M28+O28+Q28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="46">
+        <f>IF(S29&gt;0,C29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="47">
+        <v>0</v>
+      </c>
+      <c r="F29" s="46">
+        <f>IF(S29&gt;0,E29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0</v>
+      </c>
+      <c r="H29" s="46">
+        <f>IF(S29&gt;0,G29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46">
+        <f>IF(S29&gt;0,I29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="47">
+        <v>0</v>
+      </c>
+      <c r="L29" s="46">
+        <f>IF(S29&gt;0,K29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="47">
+        <v>0</v>
+      </c>
+      <c r="N29" s="46">
+        <f>IF(S29&gt;0,M29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="47">
+        <v>0</v>
+      </c>
+      <c r="P29" s="46">
+        <f>IF(S29&gt;0,O29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="47">
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <f>IF(S29&gt;0,Q29/S29*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="50">
+        <f>C29+E29+G29+I29+K29+M29+O29+Q29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="54"/>
+      <c r="B30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="18">
-        <f t="shared" ref="D29:D36" si="9">IF(S29&gt;0,C29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" ref="F29:F36" si="10">IF(S29&gt;0,E29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <f t="shared" ref="H29:H36" si="11">IF(S29&gt;0,G29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" ref="J29:J36" si="12">IF(S29&gt;0,I29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" ref="L29:L36" si="13">IF(S29&gt;0,K29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-      <c r="N29" s="18">
-        <f t="shared" ref="N29:N36" si="14">IF(S29&gt;0,M29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="19">
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
-        <f t="shared" ref="P29:P36" si="15">IF(S29&gt;0,O29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>0</v>
-      </c>
-      <c r="R29" s="18">
-        <f t="shared" ref="R29:R36" si="16">IF(S29&gt;0,Q29/S29*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="39">
-        <f>C29+E29+G29+I29+K29+M29+O29+Q29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="29" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="18">
+        <f t="shared" ref="D30:D37" si="17">IF(S30&gt;0,C30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" ref="F30:F37" si="18">IF(S30&gt;0,E30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" ref="H30:H37" si="19">IF(S30&gt;0,G30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" ref="J30:J37" si="20">IF(S30&gt;0,I30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" ref="L30:L37" si="21">IF(S30&gt;0,K30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <f t="shared" ref="N30:N37" si="22">IF(S30&gt;0,M30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="19">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" ref="P30:P37" si="23">IF(S30&gt;0,O30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0</v>
+      </c>
+      <c r="R30" s="18">
+        <f t="shared" ref="R30:R37" si="24">IF(S30&gt;0,Q30/S30*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="39">
+        <f>C30+E30+G30+I30+K30+M30+O30+Q30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
+      <c r="B31" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="15">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="19">
-        <v>0</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="19">
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="19">
-        <v>0</v>
-      </c>
-      <c r="N30" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="19">
-        <v>0</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>0</v>
-      </c>
-      <c r="R30" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="39">
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="19">
+        <v>0</v>
+      </c>
+      <c r="P31" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="29" t="s">
+    <row r="32" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
+      <c r="B32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="15">
-        <v>0</v>
-      </c>
-      <c r="D31" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="19">
-        <v>0</v>
-      </c>
-      <c r="J31" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="19">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="19">
-        <v>0</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>0</v>
-      </c>
-      <c r="R31" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="39">
-        <f>C31+E31+G31+I31+K31+M31+O31+Q31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="19">
+        <v>0</v>
+      </c>
+      <c r="P32" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>0</v>
+      </c>
+      <c r="R32" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="39">
+        <f>C32+E32+G32+I32+K32+M32+O32+Q32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="19">
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="19">
-        <v>0</v>
-      </c>
-      <c r="N32" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="19">
-        <v>0</v>
-      </c>
-      <c r="P32" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>0</v>
-      </c>
-      <c r="R32" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="39">
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="30" t="s">
+    <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="54"/>
+      <c r="B34" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="45">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="45">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="45">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="45">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="45">
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="45">
-        <v>0</v>
-      </c>
-      <c r="P33" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="45">
-        <v>0</v>
-      </c>
-      <c r="R33" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="47">
-        <f>C33+E33+G33+I33+K33+M33+O33+Q33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="30" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="47">
+        <v>0</v>
+      </c>
+      <c r="F34" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="47">
+        <v>0</v>
+      </c>
+      <c r="H34" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="47">
+        <v>0</v>
+      </c>
+      <c r="J34" s="46">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="47">
+        <v>0</v>
+      </c>
+      <c r="L34" s="46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="47">
+        <v>0</v>
+      </c>
+      <c r="N34" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="47">
+        <v>0</v>
+      </c>
+      <c r="P34" s="46">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="47">
+        <v>0</v>
+      </c>
+      <c r="R34" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="50">
+        <f>C34+E34+G34+I34+K34+M34+O34+Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="54"/>
+      <c r="B35" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="45">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="45">
-        <v>0</v>
-      </c>
-      <c r="J34" s="18">
-        <f>IF(S34&gt;0,I34/S34*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="45">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
-        <f>IF(S34&gt;0,K34/S34*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="45">
-        <v>0</v>
-      </c>
-      <c r="N34" s="18">
-        <f>IF(S34&gt;0,M34/S34*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="45">
-        <v>0</v>
-      </c>
-      <c r="P34" s="18">
-        <f>IF(S34&gt;0,O34/S34*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="45">
-        <v>0</v>
-      </c>
-      <c r="R34" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="47">
-        <f>C34+E34+G34+I34+K34+M34+O34+Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="48" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="47">
+        <v>0</v>
+      </c>
+      <c r="F35" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="47">
+        <v>0</v>
+      </c>
+      <c r="H35" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="47">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46">
+        <f>IF(S35&gt;0,I35/S35*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="47">
+        <v>0</v>
+      </c>
+      <c r="L35" s="46">
+        <f>IF(S35&gt;0,K35/S35*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="47">
+        <v>0</v>
+      </c>
+      <c r="N35" s="46">
+        <f>IF(S35&gt;0,M35/S35*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="47">
+        <v>0</v>
+      </c>
+      <c r="P35" s="46">
+        <f>IF(S35&gt;0,O35/S35*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="47">
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="50">
+        <f>C35+E35+G35+I35+K35+M35+O35+Q35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="54"/>
+      <c r="B36" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="45">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="45">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="45">
-        <v>0</v>
-      </c>
-      <c r="J35" s="18">
-        <f>IF(S35&gt;0,I35/S35*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="45">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18">
-        <f>IF(S35&gt;0,K35/S35*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="45">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18">
-        <f>IF(S35&gt;0,M35/S35*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="45">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18">
-        <f>IF(S35&gt;0,O35/S35*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="45">
-        <v>0</v>
-      </c>
-      <c r="R35" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="47">
-        <f>C35+E35+G35+I35+K35+M35+O35+Q35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="47">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="47">
+        <v>0</v>
+      </c>
+      <c r="H36" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="47">
+        <v>0</v>
+      </c>
+      <c r="J36" s="46">
+        <f>IF(S36&gt;0,I36/S36*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="47">
+        <v>0</v>
+      </c>
+      <c r="L36" s="46">
+        <f>IF(S36&gt;0,K36/S36*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="47">
+        <v>0</v>
+      </c>
+      <c r="N36" s="46">
+        <f>IF(S36&gt;0,M36/S36*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="47">
+        <v>0</v>
+      </c>
+      <c r="P36" s="46">
+        <f>IF(S36&gt;0,O36/S36*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="47">
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="50">
+        <f>C36+E36+G36+I36+K36+M36+O36+Q36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="54"/>
+      <c r="B37" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="45">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="45">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="45">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="45">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="45">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="45">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="45">
-        <v>0</v>
-      </c>
-      <c r="R36" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="47">
+      <c r="C37" s="45"/>
+      <c r="D37" s="46">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0</v>
+      </c>
+      <c r="F37" s="46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="47">
+        <v>0</v>
+      </c>
+      <c r="H37" s="46">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="47">
+        <v>0</v>
+      </c>
+      <c r="J37" s="46">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="47">
+        <v>0</v>
+      </c>
+      <c r="L37" s="46">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="47">
+        <v>0</v>
+      </c>
+      <c r="N37" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="47">
+        <v>0</v>
+      </c>
+      <c r="P37" s="46">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="47">
+        <v>0</v>
+      </c>
+      <c r="R37" s="46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="44" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="40" t="s">
+    <row r="38" spans="1:20" s="44" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="60"/>
+      <c r="B38" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="41">
-        <f>SUM(C11:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="37">
+      <c r="C38" s="41">
+        <f>SUM(C11:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="42">
-        <f>SUM(E11:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="37">
+      <c r="E38" s="42">
+        <f>SUM(E11:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="42">
-        <f>SUM(G11:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="37">
+      <c r="G38" s="42">
+        <f>SUM(G11:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="42">
-        <f>SUM(I11:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="37">
+      <c r="I38" s="42">
+        <f>SUM(I11:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="42">
-        <f>SUM(K11:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="37">
+      <c r="K38" s="42">
+        <f>SUM(K11:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M37" s="42">
-        <f>SUM(M11:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="37">
+      <c r="M38" s="42">
+        <f>SUM(M11:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O37" s="42">
-        <f>SUM(O11:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="37">
+      <c r="O38" s="42">
+        <f>SUM(O11:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="42">
-        <f>SUM(Q11:Q32)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="37">
+      <c r="Q38" s="42">
+        <f>SUM(Q11:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S37" s="43">
+      <c r="S38" s="43">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+    <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="C38" s="15">
-        <v>0</v>
-      </c>
-      <c r="D38" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="19">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="19">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="19">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="19">
-        <v>0</v>
-      </c>
-      <c r="R38" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="29" t="s">
-        <v>17</v>
       </c>
       <c r="C39" s="15">
         <v>0</v>
@@ -3211,9 +3189,9 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="15">
         <v>0</v>
@@ -3277,9 +3255,9 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C41" s="15">
         <v>0</v>
@@ -3343,9 +3321,9 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="30" t="s">
-        <v>23</v>
+      <c r="A42" s="54"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C42" s="15">
         <v>0</v>
@@ -3409,9 +3387,9 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="29" t="s">
-        <v>24</v>
+      <c r="A43" s="54"/>
+      <c r="B43" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C43" s="15">
         <v>0</v>
@@ -3474,10 +3452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="30" t="s">
-        <v>27</v>
+    <row r="44" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -3539,12 +3517,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
+    </row>
+    <row r="45" spans="1:20" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
       <c r="B45" s="30" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C45" s="15">
         <v>0</v>
@@ -3609,9 +3586,9 @@
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="30" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C46" s="15">
         <v>0</v>
@@ -3676,63 +3653,63 @@
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="31">
-        <v>0</v>
-      </c>
-      <c r="D47" s="32">
+      <c r="A47" s="54"/>
+      <c r="B47" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="33">
-        <v>0</v>
-      </c>
-      <c r="F47" s="32">
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47" s="33">
-        <v>0</v>
-      </c>
-      <c r="H47" s="32">
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I47" s="33">
-        <v>0</v>
-      </c>
-      <c r="J47" s="32">
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
-        <v>0</v>
-      </c>
-      <c r="L47" s="32">
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
-        <v>0</v>
-      </c>
-      <c r="N47" s="32">
+      <c r="M47" s="19">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
-        <v>0</v>
-      </c>
-      <c r="P47" s="32">
+      <c r="O47" s="19">
+        <v>0</v>
+      </c>
+      <c r="P47" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="33">
-        <v>0</v>
-      </c>
-      <c r="R47" s="32">
+      <c r="Q47" s="19">
+        <v>0</v>
+      </c>
+      <c r="R47" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3743,81 +3720,81 @@
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="31">
+        <v>0</v>
+      </c>
+      <c r="D48" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="33">
+        <v>0</v>
+      </c>
+      <c r="F48" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="33">
+        <v>0</v>
+      </c>
+      <c r="H48" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="33">
+        <v>0</v>
+      </c>
+      <c r="J48" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="33">
+        <v>0</v>
+      </c>
+      <c r="L48" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="33">
+        <v>0</v>
+      </c>
+      <c r="N48" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="33">
+        <v>0</v>
+      </c>
+      <c r="P48" s="32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="33">
+        <v>0</v>
+      </c>
+      <c r="R48" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+      <c r="B49" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="46">
-        <v>0</v>
-      </c>
-      <c r="D48" s="32">
-        <f>IF(S48&gt;0,C48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="33">
-        <v>0</v>
-      </c>
-      <c r="F48" s="32">
-        <f>IF(S48&gt;0,E48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="33">
-        <v>0</v>
-      </c>
-      <c r="H48" s="32">
-        <f>IF(S48&gt;0,G48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="33">
-        <v>0</v>
-      </c>
-      <c r="J48" s="32">
-        <f>IF(S48&gt;0,I48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="33">
-        <v>0</v>
-      </c>
-      <c r="L48" s="32">
-        <f>IF(S48&gt;0,K48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="33">
-        <v>0</v>
-      </c>
-      <c r="N48" s="32">
-        <f>IF(S48&gt;0,M48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="33">
-        <v>0</v>
-      </c>
-      <c r="P48" s="32">
-        <f>IF(S48&gt;0,O48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="33">
-        <v>0</v>
-      </c>
-      <c r="R48" s="32">
-        <f>IF(S48&gt;0,Q48/S48*100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="39">
-        <f>C48+E48+G48+I48+K48+M48+O48+Q48</f>
-        <v>0</v>
-      </c>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="46">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
+      <c r="C49" s="48">
+        <v>0</v>
+      </c>
+      <c r="D49" s="49">
         <f>IF(S49&gt;0,C49/S49*100,0)</f>
         <v>0</v>
       </c>
@@ -3866,98 +3843,90 @@
       <c r="Q49" s="33">
         <v>0</v>
       </c>
-      <c r="R49" s="32">
+      <c r="R49" s="49">
         <f>IF(S49&gt;0,Q49/S49*100,0)</f>
         <v>0</v>
       </c>
       <c r="S49" s="39">
+        <f>C49+E49+G49+I49+K49+M49+O49+Q49</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="54"/>
+      <c r="B50" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="48">
+        <v>0</v>
+      </c>
+      <c r="D50" s="49">
+        <f>IF(S50&gt;0,C50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="33">
+        <v>0</v>
+      </c>
+      <c r="F50" s="32">
+        <f>IF(S50&gt;0,E50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="33">
+        <v>0</v>
+      </c>
+      <c r="H50" s="32">
+        <f>IF(S50&gt;0,G50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="33">
+        <v>0</v>
+      </c>
+      <c r="J50" s="32">
+        <f>IF(S50&gt;0,I50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="33">
+        <v>0</v>
+      </c>
+      <c r="L50" s="32">
+        <f>IF(S50&gt;0,K50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="33">
+        <v>0</v>
+      </c>
+      <c r="N50" s="32">
+        <f>IF(S50&gt;0,M50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="33">
+        <v>0</v>
+      </c>
+      <c r="P50" s="32">
+        <f>IF(S50&gt;0,O50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="33">
+        <v>0</v>
+      </c>
+      <c r="R50" s="49">
+        <f>IF(S50&gt;0,Q50/S50*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="34" t="s">
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="55"/>
+      <c r="B51" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="16">
-        <f>SUM(C38:C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="20">
-        <f>SUM(E38:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="20">
-        <f>SUM(G38:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="20">
-        <f>SUM(I38:I47)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="20">
-        <f>SUM(K38:K47)</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="20">
-        <f>SUM(M38:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="20">
-        <f>SUM(O38:O47)</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="20">
-        <f>SUM(Q38:Q47)</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="5"/>
-    </row>
-    <row r="51" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="52"/>
       <c r="C51" s="16">
-        <f>SUM(C50,C37)</f>
+        <f>SUM(C39:C50)</f>
         <v>0</v>
       </c>
       <c r="D51" s="37">
@@ -3965,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="20">
-        <f>SUM(E37,E50)</f>
+        <f>SUM(E39:E48)</f>
         <v>0</v>
       </c>
       <c r="F51" s="37">
@@ -3973,15 +3942,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="20">
-        <f>SUM(G37,G50)</f>
+        <f>SUM(G39:G48)</f>
         <v>0</v>
       </c>
       <c r="H51" s="37">
-        <f>IF(S51&gt;0,G51/S51*100,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="20">
-        <f>SUM(I37,I50)</f>
+        <f>SUM(I39:I48)</f>
         <v>0</v>
       </c>
       <c r="J51" s="37">
@@ -3989,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="20">
-        <f>SUM(K37,K50)</f>
+        <f>SUM(K39:K48)</f>
         <v>0</v>
       </c>
       <c r="L51" s="37">
@@ -3997,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="20">
-        <f>SUM(M37,M50)</f>
+        <f>SUM(M39:M48)</f>
         <v>0</v>
       </c>
       <c r="N51" s="37">
@@ -4005,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="20">
-        <f>SUM(O37,O50)</f>
+        <f>SUM(O39:O48)</f>
         <v>0</v>
       </c>
       <c r="P51" s="37">
@@ -4013,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="20">
-        <f>SUM(Q37,Q50)</f>
+        <f>SUM(Q39:Q48)</f>
         <v>0</v>
       </c>
       <c r="R51" s="37">
@@ -4024,69 +3993,144 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="15">
-        <v>0</v>
-      </c>
-      <c r="D52" s="13">
-        <f>IF(S52&gt;0,C52/S52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="15">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
-        <f>IF(S52&gt;0,E52/S52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <f>IF(S52&gt;0,G52/S52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="15">
-        <v>0</v>
-      </c>
-      <c r="J52" s="13">
-        <f>IF(S52&gt;0,I52/S52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="15">
-        <v>0</v>
-      </c>
-      <c r="L52" s="13">
-        <f>IF(S52&gt;0,K52/S52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="15">
-        <v>0</v>
-      </c>
-      <c r="N52" s="13">
-        <f>IF(S52&gt;0,M52/S52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="15">
-        <v>0</v>
-      </c>
-      <c r="P52" s="17">
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="16">
+        <f>SUM(C51,C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
+        <f>SUM(E38,E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="20">
+        <f>SUM(G38,G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="37">
+        <f>IF(S52&gt;0,G52/S52*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="20">
+        <f>SUM(I38,I51)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="20">
+        <f>SUM(K38,K51)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
+        <f>SUM(M38,M51)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="20">
+        <f>SUM(O38,O51)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="15">
-        <v>0</v>
-      </c>
-      <c r="R52" s="13">
-        <f>IF(S52&gt;0,Q52/S52,0)</f>
+      <c r="Q52" s="20">
+        <f>SUM(Q38,Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <f>IF(S53&gt;0,C53/S53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <f>IF(S53&gt;0,E53/S53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <f>IF(S53&gt;0,G53/S53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <f>IF(S53&gt;0,I53/S53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <f>IF(S53&gt;0,K53/S53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <f>IF(S53&gt;0,M53/S53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="13">
+        <f>IF(S53&gt;0,Q53/S53,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="D8:N8"/>
@@ -4094,7 +4138,7 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:N9"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="A11:A37"/>
+    <mergeCell ref="A11:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4102,7 +4146,7 @@
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="D37 D51:P51 R37 N37:P37 D50:P50 R50 R51 F37:L37" formula="1"/>
+    <ignoredError sqref="D38 D52:P52 R38 N38:P38 D51:P51 R51 R52 F38:L38" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>